--- a/Food_Data.xlsx
+++ b/Food_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\COM_101\02_Databases\91879-db-assess-TaskerJ72129\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64BE640-D672-4A7B-BD06-C200E944AB6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8555ABC-6E33-4B75-A1CB-666B96B4948A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17910" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{98203AE0-9658-46EB-8A73-42D66B9ACE84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98203AE0-9658-46EB-8A73-42D66B9ACE84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,15 +62,9 @@
     <t>This is a Sunday morning event and is one of my favourite foods.  The omelet is made with one egg and filled with a generous serve of smoked salmon and cream cheese.  In summer, the addition of fresh chives makes this meal extra-special. It is normally served with two slices of whole meal toast and butter.  This gets a rating of 5/5.</t>
   </si>
   <si>
-    <t xml:space="preserve">Filo Chicken ‘Pie’ </t>
-  </si>
-  <si>
     <t>Dinner</t>
   </si>
   <si>
-    <t>This winter treat includes roast chicken, mixed ‘stir fry veggies’ and a delightful sauce.  It is topped with crumpled up filo sheets and a generous sprinkling of sesame seeds. This ‘pie’ is extremely tasty and is best served piping hot.  It is one of my mother’s signature dishes, which means that if I give it anything less than a five-star rating, things will not end well.  This gets a rating of 5/5.</t>
-  </si>
-  <si>
     <t>Affogato</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>Dessert</t>
   </si>
   <si>
-    <t>For the uninitiated affogato is a scoop of vanilla ice cream ‘drowned’ in a shot of hot espresso.  This is combines two of my favourite things, ice cream and coffee. Provided the coffee (and ice cream) are of high quality this is the ultimate simple dessert.  Tascas does this quite well and has earned a rating of four stars.  This gets a rating of 4/5.</t>
-  </si>
-  <si>
     <t>Vegetarian</t>
   </si>
   <si>
@@ -110,18 +101,12 @@
     <t>Ephesus Turkish Kitchen</t>
   </si>
   <si>
-    <t>This is one of my favourite ‘eating out’ dinners.  The combination of flat bread, humus, lettuce, lamb and other random ingredients is really, really, good.  The only slight “problem” is that the portion size is extremely generous which generally means having no room left for dessert.  This gets a rating of 4/5.</t>
-  </si>
-  <si>
     <t>Chicken Fillet Sub</t>
   </si>
   <si>
     <t>Subway</t>
   </si>
   <si>
-    <t>The good thing about Subway is the choice when it comes to bread, salads and fillings.  I’m somewhat ambivalent when it comes to the chicken sub – its ‘OK’ but a six-inch is not enough, and a twelve inch is way too much.  I like that the sandwich has less than six grams of fat, but I just can’t get all that excited over what is basically a chicken sandwich.  This gets a rating of 3/5.</t>
-  </si>
-  <si>
     <t>French Toast</t>
   </si>
   <si>
@@ -149,14 +134,52 @@
     <t>Blind Scouse</t>
   </si>
   <si>
-    <t>This is one of those ‘make it in advance’, freeze it and then eat it jobs.  It’s a stew made of potato, carrots, lentils and spices. The good thing about it is that it quick to reheat, healthy and filling.  Having said that, it is not something you’d want to eat everyday, as it can be a bit boring.  This gets a rating of 3/5.</t>
+    <t xml:space="preserve">Filo Chicken 'Pie’ </t>
+  </si>
+  <si>
+    <t>This winter treat includes roast chicken, mixed 'stir fry veggies’ and a delightful sauce.  It is topped with crumpled up filo sheets and a generous sprinkling of sesame seeds. This 'pie’ is extremely tasty and is best served piping hot.  It is one of my mother’s signature dishes, which means that if I give it anything less than a five-star rating, things will not end well.  This gets a rating of 5/5.</t>
+  </si>
+  <si>
+    <t>For the uninitiated affogato is a scoop of vanilla ice cream 'drowned’ in a shot of hot espresso.  This is combines two of my favourite things, ice cream and coffee. Provided the coffee (and ice cream) are of high quality this is the ultimate simple dessert.  Tascas does this quite well and has earned a rating of four stars.  This gets a rating of 4/5.</t>
+  </si>
+  <si>
+    <t>The good thing about Subway is the choice when it comes to bread, salads and fillings.  I’m somewhat ambivalent when it comes to the chicken sub – its 'OK’ but a six-inch is not enough, and a twelve inch is way too much.  I like that the sandwich has less than six grams of fat, but I just can’t get all that excited over what is basically a chicken sandwich.  This gets a rating of 3/5.</t>
+  </si>
+  <si>
+    <t>This is one of those 'make it in advance’, freeze it and then eat it jobs.  It’s a stew made of potato, carrots, lentils and spices. The good thing about it is that it quick to reheat, healthy and filling.  Having said that, it is not something you’d want to eat everyday, as it can be a bit boring.  This gets a rating of 3/5.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is one of my favourite 'eating out' dinners.  The combination of flat bread, humus, lettuce, lamb and other random ingredients is really, really, good. The only slight </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>problem" is that the portion size is extremely generous which generally means having no room left for dessert.  This gets a rating of 4/5.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +188,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -515,7 +546,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,7 +565,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -554,10 +585,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -571,22 +602,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -594,22 +625,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -617,22 +648,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -640,22 +671,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -663,22 +694,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -686,22 +717,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -709,22 +740,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F9">
         <v>5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -732,22 +763,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -755,22 +786,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
